--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leeja\source\repos\NewKinsTake4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293A4C03-5738-47CE-92CE-3288E060A2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D422A8C-9D32-4625-9ADB-1C8C95ABD4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8046" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8047" uniqueCount="704">
   <si>
     <t>ScenarioCode</t>
   </si>
@@ -2139,6 +2139,12 @@
   </si>
   <si>
     <t>Voucher for Reclassify Loan</t>
+  </si>
+  <si>
+    <t>The function of this screen is to **retrieve and display loan transaction history**.&lt;br&gt;The results are presented as a **Loan Transaction List**, which includes details such as **Debit Amount**, **Credit Amount**, **Transaction Description**, and the **Remaining Loan Principal Balance**. &lt;br&gt;&lt;br&gt;① Enter search criteria, including **Product Type**, **Date From**, and **Date To**. &lt;br&gt; ② Click the **Print** button to execute the search and generate the report. &lt;br&gt;&lt;br&gt;This functionality allows users to efficiently query loan transaction data for review or printing purposes.</t>
+  </si>
+  <si>
+    <t>**Loan Transaction List** by CIF number</t>
   </si>
 </sst>
 </file>
@@ -2284,7 +2290,7 @@
   <autoFilter ref="A1:I587" xr:uid="{53CB3E1F-0718-4759-BCC5-7C6BE67076F7}">
     <filterColumn colId="0">
       <filters>
-        <filter val="NW_LN_0029"/>
+        <filter val="NW_LN_0030"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -13680,7 +13686,7 @@
   <dimension ref="A1:I587"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H548" sqref="H548"/>
+      <selection activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13854,7 +13860,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>293</v>
       </c>
@@ -14048,7 +14054,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>293</v>
       </c>
@@ -15329,7 +15335,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>293</v>
       </c>
@@ -15346,7 +15352,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>293</v>
       </c>
@@ -16104,7 +16110,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>294</v>
       </c>
@@ -16112,7 +16118,7 @@
         <v>327</v>
       </c>
       <c r="C92" t="s">
-        <v>138</v>
+        <v>702</v>
       </c>
       <c r="D92" t="s">
         <v>65</v>
@@ -16133,7 +16139,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>294</v>
       </c>
@@ -16151,6 +16157,9 @@
       </c>
       <c r="G93" t="s">
         <v>464</v>
+      </c>
+      <c r="H93" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -17432,7 +17441,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>294</v>
       </c>
@@ -17772,7 +17781,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>293</v>
       </c>
@@ -24180,7 +24189,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>293</v>
       </c>
@@ -24209,7 +24218,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>293</v>
       </c>
@@ -24226,7 +24235,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>293</v>
       </c>
@@ -24243,7 +24252,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>293</v>
       </c>
@@ -24260,7 +24269,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>293</v>
       </c>
@@ -24280,7 +24289,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>293</v>
       </c>
@@ -24297,7 +24306,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>293</v>
       </c>
@@ -24314,7 +24323,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>293</v>
       </c>
@@ -24331,7 +24340,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>293</v>
       </c>
@@ -24354,7 +24363,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>293</v>
       </c>
@@ -24374,7 +24383,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>294</v>
       </c>
@@ -24391,7 +24400,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>294</v>
       </c>
@@ -24408,7 +24417,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>294</v>
       </c>
@@ -24425,7 +24434,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>294</v>
       </c>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leeja\source\repos\NewKinsTake4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D422A8C-9D32-4625-9ADB-1C8C95ABD4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8E6F48-DDB5-4347-A5A5-0BFA145979A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8047" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8047" uniqueCount="707">
   <si>
     <t>ScenarioCode</t>
   </si>
@@ -1429,9 +1429,6 @@
     <t>155110</t>
   </si>
   <si>
-    <t>00447_M</t>
-  </si>
-  <si>
     <t>150410</t>
   </si>
   <si>
@@ -1613,10 +1610,6 @@
   </si>
   <si>
     <t>Collection Commitmnet Fee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report for Drawdown, Repayment and Outstanding Balance
-</t>
   </si>
   <si>
     <t>Notice for Upcoming Payments</t>
@@ -2145,6 +2138,21 @@
   </si>
   <si>
     <t>**Loan Transaction List** by CIF number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The function of this screen is to **cancel previously processed loan transactions** and generate a **Cancel Loan Transaction Voucher**.  &lt;br&gt;&lt;br&gt;① **Enter** the **Transaction Number** in the input field and initiate an **inquiry**.  &lt;br&gt;  ② Review the displayed details to confirm the transaction you wish to cancel.  &lt;br&gt;  ③ Once verified, **click the Enter button** to complete the cancellation process.  </t>
+  </si>
+  <si>
+    <t>Voucher for Cancel Loan Transaction</t>
+  </si>
+  <si>
+    <t>The function of this screen is to **register exception classifications for corporate account handling**. &lt;br&gt;This feature is designed for cases where standard processing logic cannot be applied to a loan account. In such situations:  &lt;br&gt;&lt;br&gt;① **Automatic interest calculation** and **automatic principal repayment schedule generation** are disabled.  &lt;br&gt;② Results manually calculated by the user can be registered.  &lt;br&gt;&lt;br&gt;The screen allows the user to manage **exception registration** for such accounts, ensuring accurate handling and compliance with unique requirements.</t>
+  </si>
+  <si>
+    <t>Registration of Corporate Account Handling</t>
+  </si>
+  <si>
+    <t>The function of this screen is to **generate a comprehensive report** detailing the amounts for **drawdowns, repayments, and outstanding balances**.&lt;br&gt;&lt;br&gt;① Users can view a summarized breakdown of **loan withdrawals** (drawdowns), **payments made** (repayments), and the **remaining balance**.&lt;br&gt;  ② The report provides **precise financial insights** for monitoring and managing loan-related activities.&lt;br&gt;  &lt;br&gt;This screen ensures accurate reporting for both **transaction history** and **current financial standings** to facilitate effective decision-making.</t>
   </si>
 </sst>
 </file>
@@ -2290,7 +2298,7 @@
   <autoFilter ref="A1:I587" xr:uid="{53CB3E1F-0718-4759-BCC5-7C6BE67076F7}">
     <filterColumn colId="0">
       <filters>
-        <filter val="NW_LN_0030"/>
+        <filter val="NW_LN_0033"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -13686,13 +13694,13 @@
   <dimension ref="A1:I587"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147"/>
+      <selection activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="38.21875" customWidth="1"/>
+    <col min="2" max="2" width="66.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.21875" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" customWidth="1"/>
@@ -13739,7 +13747,7 @@
         <v>307</v>
       </c>
       <c r="C2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D2" t="s">
         <v>65</v>
@@ -13754,7 +13762,7 @@
         <v>154570</v>
       </c>
       <c r="H2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I2" t="s">
         <v>176</v>
@@ -13888,7 +13896,7 @@
         <v>329</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>704</v>
       </c>
       <c r="D9" t="s">
         <v>65</v>
@@ -13899,11 +13907,11 @@
       <c r="F9" t="s">
         <v>80</v>
       </c>
-      <c r="G9" t="s">
-        <v>466</v>
+      <c r="G9">
+        <v>150420</v>
       </c>
       <c r="H9" t="s">
-        <v>329</v>
+        <v>705</v>
       </c>
       <c r="I9" t="s">
         <v>176</v>
@@ -13932,10 +13940,10 @@
         <v>408</v>
       </c>
       <c r="H10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -13961,10 +13969,10 @@
         <v>408</v>
       </c>
       <c r="H11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -13990,10 +13998,10 @@
         <v>408</v>
       </c>
       <c r="H12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I12" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14019,10 +14027,10 @@
         <v>408</v>
       </c>
       <c r="H13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I13" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14048,10 +14056,10 @@
         <v>408</v>
       </c>
       <c r="H14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I14" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14094,10 +14102,10 @@
         <v>414</v>
       </c>
       <c r="H16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I16" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14123,10 +14131,10 @@
         <v>435</v>
       </c>
       <c r="H17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14152,10 +14160,10 @@
         <v>437</v>
       </c>
       <c r="H18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I18" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14181,10 +14189,10 @@
         <v>418</v>
       </c>
       <c r="H19" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I19" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14207,7 +14215,7 @@
         <v>418</v>
       </c>
       <c r="H20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14236,7 +14244,7 @@
         <v>121</v>
       </c>
       <c r="I21" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14259,7 +14267,7 @@
         <v>100</v>
       </c>
       <c r="H22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14288,10 +14296,10 @@
         <v>121</v>
       </c>
       <c r="I23" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>297</v>
       </c>
@@ -14299,7 +14307,7 @@
         <v>330</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>706</v>
       </c>
       <c r="D24" t="s">
         <v>65</v>
@@ -14311,10 +14319,10 @@
         <v>80</v>
       </c>
       <c r="G24" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H24" t="s">
-        <v>528</v>
+        <v>330</v>
       </c>
       <c r="I24" t="s">
         <v>176</v>
@@ -14343,10 +14351,10 @@
         <v>439</v>
       </c>
       <c r="H25" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I25" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14369,7 +14377,7 @@
         <v>439</v>
       </c>
       <c r="H26" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14395,10 +14403,10 @@
         <v>440</v>
       </c>
       <c r="H27" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I27" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14421,7 +14429,7 @@
         <v>440</v>
       </c>
       <c r="H28" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14447,10 +14455,10 @@
         <v>441</v>
       </c>
       <c r="H29" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I29" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14473,7 +14481,7 @@
         <v>441</v>
       </c>
       <c r="H30" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14499,10 +14507,10 @@
         <v>442</v>
       </c>
       <c r="H31" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I31" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14525,7 +14533,7 @@
         <v>442</v>
       </c>
       <c r="H32" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14551,10 +14559,10 @@
         <v>443</v>
       </c>
       <c r="H33" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I33" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14603,10 +14611,10 @@
         <v>444</v>
       </c>
       <c r="H35" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I35" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14629,7 +14637,7 @@
         <v>444</v>
       </c>
       <c r="H36" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14655,10 +14663,10 @@
         <v>445</v>
       </c>
       <c r="H37" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I37" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14681,7 +14689,7 @@
         <v>445</v>
       </c>
       <c r="H38" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14707,10 +14715,10 @@
         <v>446</v>
       </c>
       <c r="H39" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I39" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14733,7 +14741,7 @@
         <v>446</v>
       </c>
       <c r="H40" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14759,10 +14767,10 @@
         <v>447</v>
       </c>
       <c r="H41" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I41" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14785,7 +14793,7 @@
         <v>447</v>
       </c>
       <c r="H42" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14863,7 +14871,7 @@
         <v>306</v>
       </c>
       <c r="I45" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14886,7 +14894,7 @@
         <v>427</v>
       </c>
       <c r="H46" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14912,10 +14920,10 @@
         <v>417</v>
       </c>
       <c r="H47" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I47" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14938,7 +14946,7 @@
         <v>429</v>
       </c>
       <c r="H48" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14967,7 +14975,7 @@
         <v>308</v>
       </c>
       <c r="I49" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -14993,10 +15001,10 @@
         <v>432</v>
       </c>
       <c r="H50" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I50" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15025,7 +15033,7 @@
         <v>302</v>
       </c>
       <c r="I51" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15051,10 +15059,10 @@
         <v>423</v>
       </c>
       <c r="H52" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I52" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15083,7 +15091,7 @@
         <v>305</v>
       </c>
       <c r="I53" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15106,7 +15114,7 @@
         <v>426</v>
       </c>
       <c r="H54" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15135,7 +15143,7 @@
         <v>303</v>
       </c>
       <c r="I55" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15164,7 +15172,7 @@
         <v>316</v>
       </c>
       <c r="I56" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15193,7 +15201,7 @@
         <v>317</v>
       </c>
       <c r="I57" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15245,7 +15253,7 @@
         <v>457</v>
       </c>
       <c r="H59" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15271,10 +15279,10 @@
         <v>416</v>
       </c>
       <c r="H60" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I60" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15300,10 +15308,10 @@
         <v>455</v>
       </c>
       <c r="H61" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I61" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15329,10 +15337,10 @@
         <v>456</v>
       </c>
       <c r="H62" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I62" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15375,10 +15383,10 @@
         <v>408</v>
       </c>
       <c r="H64" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I64" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15407,7 +15415,7 @@
         <v>318</v>
       </c>
       <c r="I65" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15433,10 +15441,10 @@
         <v>419</v>
       </c>
       <c r="H66" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I66" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15459,7 +15467,7 @@
         <v>419</v>
       </c>
       <c r="H67" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15485,10 +15493,10 @@
         <v>419</v>
       </c>
       <c r="H68" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I68" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15514,10 +15522,10 @@
         <v>419</v>
       </c>
       <c r="H69" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I69" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15543,10 +15551,10 @@
         <v>419</v>
       </c>
       <c r="H70" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I70" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15572,10 +15580,10 @@
         <v>419</v>
       </c>
       <c r="H71" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I71" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15601,10 +15609,10 @@
         <v>419</v>
       </c>
       <c r="H72" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I72" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15627,7 +15635,7 @@
         <v>419</v>
       </c>
       <c r="H73" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15653,10 +15661,10 @@
         <v>419</v>
       </c>
       <c r="H74" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I74" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15679,7 +15687,7 @@
         <v>419</v>
       </c>
       <c r="H75" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15705,10 +15713,10 @@
         <v>419</v>
       </c>
       <c r="H76" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I76" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15731,7 +15739,7 @@
         <v>419</v>
       </c>
       <c r="H77" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15757,10 +15765,10 @@
         <v>419</v>
       </c>
       <c r="H78" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I78" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15786,10 +15794,10 @@
         <v>413</v>
       </c>
       <c r="H79" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I79" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15815,10 +15823,10 @@
         <v>453</v>
       </c>
       <c r="H80" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I80" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15841,7 +15849,7 @@
         <v>453</v>
       </c>
       <c r="H81" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15867,10 +15875,10 @@
         <v>454</v>
       </c>
       <c r="H82" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I82" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15896,7 +15904,7 @@
         <v>458</v>
       </c>
       <c r="H83" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I83" t="s">
         <v>176</v>
@@ -15922,7 +15930,7 @@
         <v>458</v>
       </c>
       <c r="H84" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15948,10 +15956,10 @@
         <v>436</v>
       </c>
       <c r="H85" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I85" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -15977,10 +15985,10 @@
         <v>436</v>
       </c>
       <c r="H86" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I86" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -16003,7 +16011,7 @@
         <v>436</v>
       </c>
       <c r="H87" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -16029,10 +16037,10 @@
         <v>434</v>
       </c>
       <c r="H88" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I88" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -16055,7 +16063,7 @@
         <v>434</v>
       </c>
       <c r="H89" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -16081,7 +16089,7 @@
         <v>459</v>
       </c>
       <c r="H90" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I90" t="s">
         <v>176</v>
@@ -16107,10 +16115,10 @@
         <v>459</v>
       </c>
       <c r="H91" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>294</v>
       </c>
@@ -16118,7 +16126,7 @@
         <v>327</v>
       </c>
       <c r="C92" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D92" t="s">
         <v>65</v>
@@ -16139,7 +16147,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>294</v>
       </c>
@@ -16159,7 +16167,7 @@
         <v>464</v>
       </c>
       <c r="H93" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -16185,10 +16193,10 @@
         <v>421</v>
       </c>
       <c r="H94" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I94" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -16214,10 +16222,10 @@
         <v>421</v>
       </c>
       <c r="H95" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I95" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -16243,10 +16251,10 @@
         <v>421</v>
       </c>
       <c r="H96" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I96" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -16272,10 +16280,10 @@
         <v>421</v>
       </c>
       <c r="H97" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I97" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -16298,7 +16306,7 @@
         <v>428</v>
       </c>
       <c r="H98" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -16324,7 +16332,7 @@
         <v>461</v>
       </c>
       <c r="H99" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I99" t="s">
         <v>176</v>
@@ -16350,7 +16358,7 @@
         <v>461</v>
       </c>
       <c r="H100" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -16376,7 +16384,7 @@
         <v>462</v>
       </c>
       <c r="H101" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I101" t="s">
         <v>176</v>
@@ -16402,7 +16410,7 @@
         <v>462</v>
       </c>
       <c r="H102" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -16428,7 +16436,7 @@
         <v>460</v>
       </c>
       <c r="H103" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I103" t="s">
         <v>176</v>
@@ -16454,7 +16462,7 @@
         <v>460</v>
       </c>
       <c r="H104" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -16480,7 +16488,7 @@
         <v>415</v>
       </c>
       <c r="H105" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -16503,7 +16511,7 @@
         <v>415</v>
       </c>
       <c r="H106" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -16529,7 +16537,7 @@
         <v>415</v>
       </c>
       <c r="H107" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -16552,7 +16560,7 @@
         <v>415</v>
       </c>
       <c r="H108" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -16578,10 +16586,10 @@
         <v>438</v>
       </c>
       <c r="H109" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I109" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -16604,7 +16612,7 @@
         <v>438</v>
       </c>
       <c r="H110" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -16615,7 +16623,7 @@
         <v>328</v>
       </c>
       <c r="C111" t="s">
-        <v>138</v>
+        <v>702</v>
       </c>
       <c r="D111" t="s">
         <v>65</v>
@@ -16655,6 +16663,9 @@
       <c r="G112" t="s">
         <v>465</v>
       </c>
+      <c r="H112" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
@@ -16679,10 +16690,10 @@
         <v>452</v>
       </c>
       <c r="H113" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I113" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -16705,7 +16716,7 @@
         <v>452</v>
       </c>
       <c r="H114" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -16731,7 +16742,7 @@
         <v>451</v>
       </c>
       <c r="H115" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I115" t="s">
         <v>176</v>
@@ -16780,10 +16791,10 @@
         <v>431</v>
       </c>
       <c r="H117" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I117" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -16806,7 +16817,7 @@
         <v>431</v>
       </c>
       <c r="H118" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -16832,10 +16843,10 @@
         <v>420</v>
       </c>
       <c r="H119" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I119" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -16858,7 +16869,7 @@
         <v>420</v>
       </c>
       <c r="H120" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -16884,10 +16895,10 @@
         <v>422</v>
       </c>
       <c r="H121" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I121" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -16910,7 +16921,7 @@
         <v>422</v>
       </c>
       <c r="H122" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -16936,10 +16947,10 @@
         <v>433</v>
       </c>
       <c r="H123" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I123" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -16962,7 +16973,7 @@
         <v>433</v>
       </c>
       <c r="H124" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -16988,10 +16999,10 @@
         <v>411</v>
       </c>
       <c r="H125" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I125" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -17017,10 +17028,10 @@
         <v>410</v>
       </c>
       <c r="H126" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I126" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -17046,10 +17057,10 @@
         <v>409</v>
       </c>
       <c r="H127" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I127" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -17441,7 +17452,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>294</v>
       </c>
@@ -17501,7 +17512,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>297</v>
       </c>
@@ -24197,7 +24208,7 @@
         <v>326</v>
       </c>
       <c r="C539" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D539" t="s">
         <v>65</v>
@@ -24360,7 +24371,7 @@
         <v>463</v>
       </c>
       <c r="H547" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -24383,7 +24394,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>294</v>
       </c>
@@ -24400,7 +24411,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>294</v>
       </c>
@@ -24417,7 +24428,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>294</v>
       </c>
@@ -24434,7 +24445,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>294</v>
       </c>
@@ -24570,7 +24581,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>297</v>
       </c>
@@ -24587,7 +24598,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>297</v>
       </c>
@@ -24604,7 +24615,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>297</v>
       </c>
@@ -25027,13 +25038,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C2" t="s">
         <v>579</v>
-      </c>
-      <c r="B2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C2" t="s">
-        <v>581</v>
       </c>
       <c r="D2" t="s">
         <v>65</v>
@@ -25045,18 +25056,18 @@
         <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D3" t="s">
         <v>65</v>
@@ -25070,10 +25081,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D4" t="s">
         <v>65</v>
@@ -25129,13 +25140,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C2" t="s">
         <v>584</v>
-      </c>
-      <c r="B2" t="s">
-        <v>585</v>
-      </c>
-      <c r="C2" t="s">
-        <v>586</v>
       </c>
       <c r="D2" t="s">
         <v>65</v>
@@ -25149,10 +25160,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D3" t="s">
         <v>65</v>
@@ -25166,13 +25177,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C4" t="s">
         <v>585</v>
-      </c>
-      <c r="C4" t="s">
-        <v>587</v>
       </c>
       <c r="D4" t="s">
         <v>65</v>
@@ -25186,10 +25197,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D5" t="s">
         <v>65</v>
@@ -25203,10 +25214,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D6" t="s">
         <v>65</v>
@@ -25220,10 +25231,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D7" t="s">
         <v>65</v>
@@ -25237,13 +25248,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C8" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D8" t="s">
         <v>65</v>
@@ -25257,10 +25268,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B9" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D9" t="s">
         <v>65</v>
@@ -25274,10 +25285,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B10" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D10" t="s">
         <v>65</v>
@@ -25291,10 +25302,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D11" t="s">
         <v>65</v>
@@ -25308,13 +25319,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B12" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C12" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D12" t="s">
         <v>65</v>
@@ -25326,21 +25337,21 @@
         <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I12" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B13" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D13" t="s">
         <v>65</v>
@@ -25354,10 +25365,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B14" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D14" t="s">
         <v>65</v>
@@ -25371,10 +25382,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B15" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D15" t="s">
         <v>66</v>
@@ -25388,10 +25399,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B16" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D16" t="s">
         <v>66</v>
@@ -25405,10 +25416,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B17" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D17" t="s">
         <v>66</v>
@@ -25422,10 +25433,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B18" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D18" t="s">
         <v>66</v>
@@ -25439,10 +25450,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B19" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D19" t="s">
         <v>66</v>
@@ -25456,10 +25467,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B20" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D20" t="s">
         <v>66</v>
@@ -25473,10 +25484,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B21" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D21" t="s">
         <v>67</v>
@@ -25490,13 +25501,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B22" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C22" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D22" t="s">
         <v>67</v>
@@ -25508,15 +25519,15 @@
         <v>90</v>
       </c>
       <c r="G22" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B23" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D23" t="s">
         <v>67</v>
@@ -25530,10 +25541,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B24" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D24" t="s">
         <v>67</v>
@@ -25547,13 +25558,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B25" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C25" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D25" t="s">
         <v>67</v>
@@ -25565,15 +25576,15 @@
         <v>80</v>
       </c>
       <c r="I25" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B26" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D26" t="s">
         <v>67</v>
@@ -25587,13 +25598,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B27" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C27" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D27" t="s">
         <v>67</v>
@@ -25605,21 +25616,21 @@
         <v>80</v>
       </c>
       <c r="G27" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H27" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="I27" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B28" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D28" t="s">
         <v>67</v>
@@ -25633,10 +25644,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B29" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D29" t="s">
         <v>67</v>
@@ -25650,10 +25661,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B30" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D30" t="s">
         <v>68</v>
@@ -25667,10 +25678,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B31" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D31" t="s">
         <v>68</v>
@@ -25684,10 +25695,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B32" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D32" t="s">
         <v>68</v>
@@ -25701,10 +25712,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B33" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D33" t="s">
         <v>68</v>
@@ -25718,10 +25729,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B34" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D34" t="s">
         <v>68</v>
@@ -25735,10 +25746,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B35" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D35" t="s">
         <v>68</v>
@@ -25752,10 +25763,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B36" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D36" t="s">
         <v>68</v>
@@ -25769,10 +25780,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B37" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D37" t="s">
         <v>68</v>
@@ -25786,10 +25797,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B38" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D38" t="s">
         <v>68</v>
@@ -25803,10 +25814,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B39" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D39" t="s">
         <v>68</v>
@@ -25820,10 +25831,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B40" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D40" t="s">
         <v>68</v>
@@ -25837,10 +25848,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B41" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D41" t="s">
         <v>68</v>
@@ -25854,10 +25865,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B42" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D42" t="s">
         <v>69</v>
@@ -25871,13 +25882,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B43" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C43" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D43" t="s">
         <v>69</v>
@@ -25891,10 +25902,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B44" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D44" t="s">
         <v>69</v>
@@ -25908,10 +25919,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B45" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D45" t="s">
         <v>69</v>
@@ -25925,10 +25936,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B46" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D46" t="s">
         <v>69</v>
@@ -25942,13 +25953,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B47" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C47" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D47" t="s">
         <v>69</v>
@@ -25962,10 +25973,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B48" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="s">
         <v>69</v>
@@ -25979,10 +25990,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B49" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D49" t="s">
         <v>69</v>
@@ -25996,10 +26007,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B50" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D50" t="s">
         <v>69</v>
@@ -26013,10 +26024,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B51" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D51" t="s">
         <v>69</v>
@@ -26030,10 +26041,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B52" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D52" t="s">
         <v>70</v>
@@ -26047,10 +26058,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B53" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D53" t="s">
         <v>70</v>
@@ -26064,10 +26075,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B54" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D54" t="s">
         <v>70</v>
@@ -26081,10 +26092,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B55" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D55" t="s">
         <v>70</v>
@@ -26098,10 +26109,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B56" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D56" t="s">
         <v>70</v>
@@ -26115,10 +26126,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B57" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D57" t="s">
         <v>70</v>
@@ -26132,10 +26143,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B58" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D58" t="s">
         <v>71</v>
@@ -26149,13 +26160,13 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B59" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C59" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D59" t="s">
         <v>71</v>
@@ -26167,21 +26178,21 @@
         <v>80</v>
       </c>
       <c r="G59" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H59" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I59" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B60" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D60" t="s">
         <v>71</v>
@@ -26195,10 +26206,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B61" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D61" t="s">
         <v>71</v>
@@ -26212,13 +26223,13 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B62" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C62" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D62" t="s">
         <v>71</v>
@@ -26230,21 +26241,21 @@
         <v>80</v>
       </c>
       <c r="G62" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H62" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I62" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B63" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D63" t="s">
         <v>71</v>
@@ -26258,10 +26269,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B64" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D64" t="s">
         <v>71</v>
@@ -26275,10 +26286,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B65" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D65" t="s">
         <v>71</v>
@@ -26292,10 +26303,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B66" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D66" t="s">
         <v>72</v>
@@ -26309,10 +26320,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B67" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D67" t="s">
         <v>72</v>
@@ -26326,10 +26337,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B68" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D68" t="s">
         <v>72</v>
@@ -26343,10 +26354,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B69" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D69" t="s">
         <v>72</v>
@@ -26360,10 +26371,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B70" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D70" t="s">
         <v>72</v>
@@ -26377,10 +26388,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B71" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D71" t="s">
         <v>72</v>
@@ -26394,10 +26405,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B72" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D72" t="s">
         <v>72</v>
@@ -26411,10 +26422,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B73" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D73" t="s">
         <v>72</v>
@@ -26428,10 +26439,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B74" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D74" t="s">
         <v>72</v>
@@ -26445,10 +26456,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B75" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D75" t="s">
         <v>72</v>
@@ -26462,10 +26473,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B76" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D76" t="s">
         <v>72</v>
@@ -26479,13 +26490,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B77" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C77" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D77" t="s">
         <v>73</v>
@@ -26499,10 +26510,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B78" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D78" t="s">
         <v>73</v>
@@ -26516,10 +26527,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B79" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D79" t="s">
         <v>73</v>
@@ -26533,10 +26544,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B80" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D80" t="s">
         <v>73</v>
@@ -26550,13 +26561,13 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B81" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C81" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D81" t="s">
         <v>73</v>
@@ -26568,21 +26579,21 @@
         <v>80</v>
       </c>
       <c r="G81" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H81" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="I81" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B82" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D82" t="s">
         <v>73</v>
@@ -26596,13 +26607,13 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B83" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C83" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D83" t="s">
         <v>73</v>
@@ -26614,21 +26625,21 @@
         <v>80</v>
       </c>
       <c r="G83" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H83" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I83" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B84" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D84" t="s">
         <v>73</v>
@@ -26642,13 +26653,13 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B85" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C85" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D85" t="s">
         <v>73</v>
@@ -26660,21 +26671,21 @@
         <v>80</v>
       </c>
       <c r="G85" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H85" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I85" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B86" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D86" t="s">
         <v>73</v>
@@ -26688,10 +26699,10 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B87" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D87" t="s">
         <v>73</v>
@@ -26705,10 +26716,10 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B88" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D88" t="s">
         <v>74</v>
@@ -26722,10 +26733,10 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B89" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D89" t="s">
         <v>74</v>
@@ -26739,10 +26750,10 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B90" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D90" t="s">
         <v>74</v>
@@ -26756,13 +26767,13 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B91" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C91" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D91" t="s">
         <v>75</v>
@@ -26774,15 +26785,15 @@
         <v>80</v>
       </c>
       <c r="I91" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B92" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D92" t="s">
         <v>75</v>
@@ -26796,13 +26807,13 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B93" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C93" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D93" t="s">
         <v>75</v>
@@ -26814,21 +26825,21 @@
         <v>80</v>
       </c>
       <c r="G93" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H93" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="I93" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B94" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D94" t="s">
         <v>75</v>
@@ -26842,10 +26853,10 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B95" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D95" t="s">
         <v>75</v>
@@ -26859,10 +26870,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B96" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D96" t="s">
         <v>149</v>
@@ -26876,10 +26887,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B97" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D97" t="s">
         <v>149</v>
@@ -26893,10 +26904,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B98" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D98" t="s">
         <v>149</v>
@@ -26910,10 +26921,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B99" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D99" t="s">
         <v>149</v>
@@ -26927,10 +26938,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B100" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D100" t="s">
         <v>149</v>
@@ -26944,10 +26955,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B101" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D101" t="s">
         <v>149</v>
@@ -26961,10 +26972,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B102" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D102" t="s">
         <v>149</v>
@@ -26978,10 +26989,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B103" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D103" t="s">
         <v>149</v>
@@ -26995,10 +27006,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B104" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D104" t="s">
         <v>149</v>
@@ -27012,10 +27023,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B105" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D105" t="s">
         <v>149</v>
@@ -27029,10 +27040,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B106" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D106" t="s">
         <v>149</v>
@@ -27046,13 +27057,13 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B107" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C107" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D107" t="s">
         <v>150</v>
@@ -27066,10 +27077,10 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B108" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D108" t="s">
         <v>150</v>
@@ -27083,10 +27094,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B109" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D109" t="s">
         <v>150</v>
@@ -27100,10 +27111,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B110" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D110" t="s">
         <v>150</v>
@@ -27117,13 +27128,13 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B111" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C111" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D111" t="s">
         <v>150</v>
@@ -27137,10 +27148,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B112" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D112" t="s">
         <v>150</v>
@@ -27154,10 +27165,10 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B113" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D113" t="s">
         <v>150</v>
@@ -27171,10 +27182,10 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B114" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D114" t="s">
         <v>150</v>
@@ -27188,10 +27199,10 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B115" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D115" t="s">
         <v>150</v>
@@ -27205,10 +27216,10 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B116" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D116" t="s">
         <v>150</v>
@@ -27222,10 +27233,10 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B117" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D117" t="s">
         <v>150</v>
@@ -27239,10 +27250,10 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B118" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D118" t="s">
         <v>403</v>
@@ -27256,10 +27267,10 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B119" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D119" t="s">
         <v>403</v>
@@ -27273,10 +27284,10 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B120" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D120" t="s">
         <v>403</v>
@@ -27290,10 +27301,10 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B121" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D121" t="s">
         <v>403</v>
@@ -27307,10 +27318,10 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B122" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D122" t="s">
         <v>403</v>
@@ -27324,13 +27335,13 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B123" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C123" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D123" t="s">
         <v>404</v>
@@ -27345,15 +27356,15 @@
         <v>412</v>
       </c>
       <c r="I123" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B124" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D124" t="s">
         <v>404</v>
@@ -27367,10 +27378,10 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B125" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D125" t="s">
         <v>404</v>
@@ -27384,13 +27395,13 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B126" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C126" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D126" t="s">
         <v>404</v>
@@ -27402,18 +27413,18 @@
         <v>90</v>
       </c>
       <c r="G126" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="I126" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B127" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D127" t="s">
         <v>404</v>
@@ -27427,10 +27438,10 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B128" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D128" t="s">
         <v>404</v>
@@ -27444,10 +27455,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B129" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D129" t="s">
         <v>404</v>
@@ -27461,13 +27472,13 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B130" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D130" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E130" t="s">
         <v>65</v>
@@ -27478,13 +27489,13 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B131" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D131" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E131" t="s">
         <v>66</v>
@@ -27495,13 +27506,13 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B132" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D132" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E132" t="s">
         <v>67</v>
@@ -27512,13 +27523,13 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B133" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D133" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E133" t="s">
         <v>68</v>
@@ -27529,13 +27540,13 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B134" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D134" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E134" t="s">
         <v>69</v>
@@ -27546,13 +27557,13 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B135" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D135" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E135" t="s">
         <v>70</v>
@@ -27563,13 +27574,13 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B136" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D136" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E136" t="s">
         <v>71</v>
@@ -27580,13 +27591,13 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B137" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D137" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E137" t="s">
         <v>72</v>
@@ -27597,13 +27608,13 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B138" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D138" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E138" t="s">
         <v>73</v>
@@ -27614,13 +27625,13 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B139" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D139" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E139" t="s">
         <v>74</v>
@@ -27631,13 +27642,13 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B140" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D140" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E140" t="s">
         <v>75</v>
@@ -27648,16 +27659,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B141" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C141" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D141" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E141" t="s">
         <v>65</v>
@@ -27668,13 +27679,13 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B142" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D142" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E142" t="s">
         <v>66</v>
@@ -27685,16 +27696,16 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B143" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C143" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D143" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E143" t="s">
         <v>67</v>
@@ -27705,13 +27716,13 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B144" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D144" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E144" t="s">
         <v>68</v>
@@ -27722,13 +27733,13 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B145" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D145" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E145" t="s">
         <v>69</v>
@@ -27739,13 +27750,13 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B146" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D146" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E146" t="s">
         <v>70</v>
@@ -27756,13 +27767,13 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B147" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D147" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E147" t="s">
         <v>71</v>
@@ -27773,13 +27784,13 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B148" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D148" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E148" t="s">
         <v>72</v>
@@ -27790,13 +27801,13 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B149" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D149" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E149" t="s">
         <v>73</v>
@@ -27807,13 +27818,13 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B150" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D150" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E150" t="s">
         <v>74</v>
@@ -27824,13 +27835,13 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B151" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D151" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E151" t="s">
         <v>75</v>
@@ -27841,13 +27852,13 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B152" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D152" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E152" t="s">
         <v>149</v>
@@ -27858,13 +27869,13 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B153" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D153" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E153" t="s">
         <v>150</v>
@@ -27875,13 +27886,13 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B154" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D154" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E154" t="s">
         <v>403</v>
@@ -27892,13 +27903,13 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B155" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D155" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E155" t="s">
         <v>65</v>
@@ -27909,13 +27920,13 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B156" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D156" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E156" t="s">
         <v>67</v>
@@ -27926,13 +27937,13 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B157" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D157" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E157" t="s">
         <v>72</v>
@@ -27943,13 +27954,13 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B158" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D158" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E158" t="s">
         <v>73</v>
@@ -27960,13 +27971,13 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B159" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D159" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E159" t="s">
         <v>149</v>
@@ -27977,16 +27988,16 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B160" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C160" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D160" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E160" t="s">
         <v>67</v>
@@ -27998,18 +28009,18 @@
         <v>160</v>
       </c>
       <c r="I160" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B161" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D161" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E161" t="s">
         <v>68</v>
@@ -28020,16 +28031,16 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B162" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C162" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D162" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E162" t="s">
         <v>69</v>
@@ -28038,24 +28049,24 @@
         <v>90</v>
       </c>
       <c r="G162" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I162" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B163" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C163" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D163" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E163" t="s">
         <v>73</v>
@@ -28064,24 +28075,24 @@
         <v>80</v>
       </c>
       <c r="G163" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H163" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I163" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B164" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D164" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E164" t="s">
         <v>74</v>
@@ -28092,16 +28103,16 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B165" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C165" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D165" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E165" t="s">
         <v>75</v>
@@ -28115,7 +28126,7 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D166" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E166" t="s">
         <v>149</v>
@@ -28168,13 +28179,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D2" t="s">
         <v>65</v>
@@ -28191,10 +28202,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D3" t="s">
         <v>65</v>
@@ -28208,13 +28219,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D4" t="s">
         <v>65</v>
@@ -28226,18 +28237,18 @@
         <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D5" t="s">
         <v>65</v>
@@ -28251,13 +28262,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D6" t="s">
         <v>65</v>
@@ -28269,18 +28280,18 @@
         <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D7" t="s">
         <v>65</v>
@@ -28294,13 +28305,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B8" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C8" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D8" t="s">
         <v>65</v>
@@ -28314,10 +28325,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D9" t="s">
         <v>65</v>
@@ -28331,10 +28342,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B10" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -28348,10 +28359,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D11" t="s">
         <v>65</v>
@@ -28363,15 +28374,15 @@
         <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B12" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D12" t="s">
         <v>65</v>
@@ -28385,10 +28396,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B13" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D13" t="s">
         <v>65</v>
@@ -28402,10 +28413,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B14" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D14" t="s">
         <v>67</v>
@@ -28419,10 +28430,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B15" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D15" t="s">
         <v>67</v>
@@ -28436,10 +28447,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B16" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D16" t="s">
         <v>67</v>
@@ -28453,10 +28464,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B17" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D17" t="s">
         <v>67</v>
@@ -28470,10 +28481,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B18" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D18" t="s">
         <v>67</v>
@@ -28487,10 +28498,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B19" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D19" t="s">
         <v>66</v>
@@ -28504,10 +28515,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B20" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D20" t="s">
         <v>65</v>
@@ -28519,15 +28530,15 @@
         <v>90</v>
       </c>
       <c r="G20" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B21" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D21" t="s">
         <v>65</v>
@@ -28541,13 +28552,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B22" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C22" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D22" t="s">
         <v>65</v>
@@ -28559,18 +28570,18 @@
         <v>80</v>
       </c>
       <c r="G22" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H22" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B23" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D23" t="s">
         <v>65</v>
@@ -28584,13 +28595,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B24" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C24" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D24" t="s">
         <v>65</v>
@@ -28602,18 +28613,18 @@
         <v>80</v>
       </c>
       <c r="G24" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H24" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B25" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D25" t="s">
         <v>65</v>
@@ -28627,13 +28638,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B26" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C26" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D26" t="s">
         <v>65</v>
@@ -28645,18 +28656,18 @@
         <v>80</v>
       </c>
       <c r="G26" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H26" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B27" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D27" t="s">
         <v>65</v>
@@ -28670,10 +28681,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B28" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D28" t="s">
         <v>65</v>
@@ -28687,10 +28698,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B29" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D29" t="s">
         <v>65</v>
@@ -28702,15 +28713,15 @@
         <v>90</v>
       </c>
       <c r="G29" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B30" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D30" t="s">
         <v>65</v>
@@ -28724,13 +28735,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B31" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C31" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D31" t="s">
         <v>65</v>
@@ -28747,10 +28758,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B32" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D32" t="s">
         <v>65</v>
@@ -28764,13 +28775,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B33" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C33" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D33" t="s">
         <v>65</v>
@@ -28782,18 +28793,18 @@
         <v>80</v>
       </c>
       <c r="G33" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H33" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B34" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D34" t="s">
         <v>65</v>
@@ -28807,13 +28818,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B35" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C35" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D35" t="s">
         <v>65</v>
@@ -28825,18 +28836,18 @@
         <v>80</v>
       </c>
       <c r="G35" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H35" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B36" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D36" t="s">
         <v>65</v>
@@ -28850,13 +28861,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B37" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C37" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D37" t="s">
         <v>65</v>
@@ -28868,18 +28879,18 @@
         <v>80</v>
       </c>
       <c r="G37" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H37" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B38" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D38" t="s">
         <v>65</v>
@@ -28893,10 +28904,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B39" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D39" t="s">
         <v>65</v>
@@ -28910,10 +28921,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B40" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D40" t="s">
         <v>65</v>
@@ -28925,15 +28936,15 @@
         <v>90</v>
       </c>
       <c r="G40" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B41" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D41" t="s">
         <v>65</v>
@@ -28947,13 +28958,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B42" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C42" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D42" t="s">
         <v>65</v>
@@ -28970,10 +28981,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B43" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D43" t="s">
         <v>65</v>
@@ -28987,13 +28998,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B44" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C44" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D44" t="s">
         <v>65</v>
@@ -29005,18 +29016,18 @@
         <v>80</v>
       </c>
       <c r="G44" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H44" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B45" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D45" t="s">
         <v>65</v>
@@ -29030,13 +29041,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B46" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C46" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D46" t="s">
         <v>65</v>
@@ -29048,18 +29059,18 @@
         <v>80</v>
       </c>
       <c r="G46" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H46" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B47" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D47" t="s">
         <v>65</v>
@@ -29073,13 +29084,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B48" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C48" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D48" t="s">
         <v>65</v>
@@ -29091,18 +29102,18 @@
         <v>80</v>
       </c>
       <c r="G48" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H48" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B49" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D49" t="s">
         <v>65</v>
@@ -29116,10 +29127,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B50" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D50" t="s">
         <v>65</v>
@@ -29133,10 +29144,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B51" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D51" t="s">
         <v>65</v>
@@ -29148,15 +29159,15 @@
         <v>90</v>
       </c>
       <c r="G51" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B52" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D52" t="s">
         <v>65</v>
@@ -29170,13 +29181,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B53" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C53" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D53" t="s">
         <v>65</v>
@@ -29188,18 +29199,18 @@
         <v>80</v>
       </c>
       <c r="G53" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H53" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B54" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D54" t="s">
         <v>65</v>
@@ -29213,13 +29224,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B55" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C55" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D55" t="s">
         <v>65</v>
@@ -29231,18 +29242,18 @@
         <v>80</v>
       </c>
       <c r="G55" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H55" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B56" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D56" t="s">
         <v>65</v>
@@ -29256,10 +29267,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B57" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D57" t="s">
         <v>65</v>
@@ -29273,10 +29284,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B58" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D58" t="s">
         <v>66</v>
@@ -29290,10 +29301,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B59" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D59" t="s">
         <v>67</v>
@@ -29349,13 +29360,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C2" t="s">
         <v>684</v>
-      </c>
-      <c r="B2" t="s">
-        <v>685</v>
-      </c>
-      <c r="C2" t="s">
-        <v>686</v>
       </c>
       <c r="D2" t="s">
         <v>65</v>
@@ -29372,10 +29383,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D3" t="s">
         <v>65</v>
@@ -29389,13 +29400,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B4" t="s">
+        <v>683</v>
+      </c>
+      <c r="C4" t="s">
         <v>685</v>
-      </c>
-      <c r="C4" t="s">
-        <v>687</v>
       </c>
       <c r="D4" t="s">
         <v>65</v>
@@ -29407,18 +29418,18 @@
         <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D5" t="s">
         <v>65</v>
@@ -29432,13 +29443,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D6" t="s">
         <v>65</v>
@@ -29450,18 +29461,18 @@
         <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D7" t="s">
         <v>65</v>
@@ -29475,13 +29486,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B8" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C8" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D8" t="s">
         <v>65</v>
@@ -29495,10 +29506,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B9" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D9" t="s">
         <v>65</v>
@@ -29512,13 +29523,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B10" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C10" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D10" t="s">
         <v>65</v>
@@ -29535,10 +29546,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B11" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D11" t="s">
         <v>65</v>
@@ -29552,13 +29563,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B12" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C12" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D12" t="s">
         <v>65</v>
@@ -29570,18 +29581,18 @@
         <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H12" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B13" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D13" t="s">
         <v>65</v>
@@ -29595,10 +29606,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B14" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D14" t="s">
         <v>65</v>
@@ -29612,10 +29623,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B15" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D15" t="s">
         <v>65</v>
@@ -29627,15 +29638,15 @@
         <v>90</v>
       </c>
       <c r="G15" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B16" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D16" t="s">
         <v>65</v>
@@ -29649,13 +29660,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B17" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C17" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D17" t="s">
         <v>65</v>
@@ -29672,10 +29683,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B18" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D18" t="s">
         <v>65</v>
@@ -29689,13 +29700,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B19" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C19" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D19" t="s">
         <v>65</v>
@@ -29707,18 +29718,18 @@
         <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H19" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B20" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D20" t="s">
         <v>65</v>
@@ -29732,13 +29743,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B21" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C21" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D21" t="s">
         <v>65</v>
@@ -29750,18 +29761,18 @@
         <v>80</v>
       </c>
       <c r="G21" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H21" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B22" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D22" t="s">
         <v>65</v>
@@ -29775,13 +29786,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B23" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C23" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D23" t="s">
         <v>65</v>
@@ -29793,18 +29804,18 @@
         <v>80</v>
       </c>
       <c r="G23" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H23" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B24" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D24" t="s">
         <v>65</v>
@@ -29818,13 +29829,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B25" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C25" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D25" t="s">
         <v>65</v>
@@ -29836,18 +29847,18 @@
         <v>80</v>
       </c>
       <c r="G25" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H25" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B26" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D26" t="s">
         <v>65</v>
@@ -29861,13 +29872,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B27" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C27" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D27" t="s">
         <v>65</v>
@@ -29879,18 +29890,18 @@
         <v>80</v>
       </c>
       <c r="G27" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H27" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B28" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D28" t="s">
         <v>65</v>
@@ -29904,10 +29915,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B29" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D29" t="s">
         <v>66</v>
@@ -29921,10 +29932,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B30" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D30" t="s">
         <v>67</v>
@@ -29936,7 +29947,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
   </sheetData>
